--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2034.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2034.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154325257183284</v>
+        <v>1.211629152297974</v>
       </c>
       <c r="B1">
-        <v>2.363240141568942</v>
+        <v>2.267055034637451</v>
       </c>
       <c r="C1">
-        <v>6.443767974411462</v>
+        <v>6.194401264190674</v>
       </c>
       <c r="D1">
-        <v>2.353241155514543</v>
+        <v>2.009319543838501</v>
       </c>
       <c r="E1">
-        <v>1.220234591124088</v>
+        <v>1.168142437934875</v>
       </c>
     </row>
   </sheetData>
